--- a/res/valeurcible4.xlsx
+++ b/res/valeurcible4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IUTtravail\cours\excel\cours20182019\valeurcible\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IUTtravail\cours\excel\Excel20192020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39836F3C-B4B3-4311-A019-B4B5A25CF144}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DA17130-94F0-4241-A090-0504B63810EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{2DA0D107-D796-4BF4-AA17-9B50E989F014}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2DA0D107-D796-4BF4-AA17-9B50E989F014}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -218,20 +218,20 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,15 +595,15 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -620,15 +620,15 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -645,13 +645,13 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
@@ -668,12 +668,12 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -690,12 +690,12 @@
         <v>49.56</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -711,12 +711,12 @@
         <v>51.45</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
@@ -737,41 +737,41 @@
       <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="F14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="F14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
